--- a/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
@@ -871,6 +871,9 @@
       <c r="C51" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -932,7 +935,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030351515321510659553681035143055232024045311515835515201020301520181715105106105560</v>
+        <v>030351515321510659553681035143055232024045311515835515201020301520181715105106105561</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,12 +872,166 @@
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>6</v>
+      </c>
+      <c r="C57" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>7</v>
+      </c>
+      <c r="C63" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>381_银叶菊_Dusty miller_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -935,7 +1089,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030351515321510659553681035143055232024045311515835515201020301520181715105106105561</v>
+        <v>0303515153215106595536810351430552320240453115158355152010203015201817151051061055615101010520201510101510505101010515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-9.xlsx
@@ -1091,6 +1091,9 @@
       <c r="G2" t="str">
         <v>0303515153215106595536810351430552320240453115158355152010203015201817151051061055615101010520201510101510505101010515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
